--- a/ComparePre1922To2023DemandManagement/PrePostCompactWaterRights.xlsx
+++ b/ComparePre1922To2023DemandManagement/PrePostCompactWaterRights.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Rosenberg\Work\USU\Research\ColoradoRiver\RCode\ColoradoRiverCollaborate\ComparePre1922To2023DemandManagement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0C11E30-71CB-4920-9AC6-C8E391F14B64}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58EACF22-B0BB-4C2E-A5B3-09D02596E03D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6350" xr2:uid="{103A74F2-4913-4D84-B9FD-026CB70CED0B}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="28">
   <si>
     <t>State</t>
   </si>
@@ -105,6 +105,12 @@
   </si>
   <si>
     <t>Upper Colorado River Compact Percentages</t>
+  </si>
+  <si>
+    <t>2023 Demand Manage (ac-feet)</t>
+  </si>
+  <si>
+    <t>2023 Estimated from Wyoming</t>
   </si>
 </sst>
 </file>
@@ -138,7 +144,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -154,6 +160,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -197,7 +209,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -226,6 +238,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -541,9 +559,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58A434C0-4C67-4213-99E0-4DA4B9ACBBE5}">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -552,12 +572,12 @@
     <col min="5" max="5" width="9.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
         <v>0</v>
       </c>
@@ -570,17 +590,23 @@
       <c r="D3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="H3" t="s">
+      <c r="G3" s="14" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I3" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -594,19 +620,23 @@
       <c r="D4" s="4">
         <v>0.98</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="15">
         <f>B4/SUM(B$4:B$7)</f>
         <v>0.2378603960452893</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="15">
         <f>D4/SUM(D$4:D$7)</f>
         <v>0.21814460004189265</v>
       </c>
-      <c r="H4" s="13">
+      <c r="G4" s="15">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="J4" s="17">
+        <f>$I$5*G4/$G$5</f>
+        <v>1642.8571428571427</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -620,19 +650,26 @@
         <f>SUM(B5,C5)</f>
         <v>0.59743299999999999</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="15">
         <f t="shared" ref="E5:E7" si="0">B5/SUM(B$4:B$7)</f>
         <v>0.24180618419361347</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="15">
         <f t="shared" ref="F5:F7" si="1">D5/SUM(D$4:D$7)</f>
         <v>0.13298651309880413</v>
       </c>
-      <c r="H5" s="13">
+      <c r="G5" s="15">
         <v>0.14000000000000001</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I5">
+        <v>1000</v>
+      </c>
+      <c r="J5" s="17">
+        <f t="shared" ref="J5:J7" si="2">$I$5*G5/$G$5</f>
+        <v>999.99999999999989</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
@@ -646,19 +683,23 @@
       <c r="D6" s="4">
         <v>2.5</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="15">
         <f t="shared" si="0"/>
         <v>0.49029719519084708</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="15">
         <f t="shared" si="1"/>
         <v>0.55649132663748124</v>
       </c>
-      <c r="H6" s="13">
+      <c r="G6" s="15">
         <v>0.51749999999999996</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="J6" s="17">
+        <f t="shared" si="2"/>
+        <v>3696.4285714285711</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
@@ -672,19 +713,23 @@
       <c r="D7" s="4">
         <v>0.41499999999999998</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="15">
         <f t="shared" si="0"/>
         <v>3.003622457025009E-2</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="15">
         <f t="shared" si="1"/>
         <v>9.2377560221821892E-2</v>
       </c>
-      <c r="H7" s="13">
+      <c r="G7" s="15">
         <v>0.1125</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="J7" s="17">
+        <f t="shared" si="2"/>
+        <v>803.57142857142844</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="11" t="s">
         <v>17</v>
       </c>
@@ -700,7 +745,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>18</v>
       </c>
@@ -712,11 +757,18 @@
         <v>1.2969999999999999</v>
       </c>
       <c r="D9" s="4">
-        <f t="shared" ref="D9:D10" si="2">SUM(B9:C9)</f>
+        <f t="shared" ref="D9:D10" si="3">SUM(B9:C9)</f>
         <v>2.8</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J9" s="17">
+        <f>SUM(J4:J7)</f>
+        <v>7142.8571428571422</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>19</v>
       </c>
@@ -728,11 +780,11 @@
         <v>2.3850000000000002</v>
       </c>
       <c r="D10" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
         <v>20</v>
       </c>
@@ -749,7 +801,7 @@
         <v>4.4924330000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="8" t="s">
         <v>21</v>
       </c>
@@ -758,20 +810,20 @@
         <v>3.5305</v>
       </c>
       <c r="C12" s="9">
-        <f t="shared" ref="C12:D12" si="3">SUM(C8:C10)</f>
+        <f t="shared" ref="C12:D12" si="4">SUM(C8:C10)</f>
         <v>3.9695</v>
       </c>
       <c r="D12" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.5</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -824,7 +876,7 @@
         <v>24</v>
       </c>
       <c r="J3" s="13" t="str">
-        <f>FromSheet!H3</f>
+        <f>FromSheet!G3</f>
         <v>Upper Colorado River Compact Percentages</v>
       </c>
     </row>
@@ -854,7 +906,7 @@
         <v>0.21814460004189265</v>
       </c>
       <c r="J4" s="13">
-        <f>FromSheet!H4</f>
+        <f>FromSheet!G4</f>
         <v>0.23</v>
       </c>
     </row>
@@ -884,7 +936,7 @@
         <v>0.13298651309880413</v>
       </c>
       <c r="J5" s="13">
-        <f>FromSheet!H5</f>
+        <f>FromSheet!G5</f>
         <v>0.14000000000000001</v>
       </c>
     </row>
@@ -914,7 +966,7 @@
         <v>0.55649132663748124</v>
       </c>
       <c r="J6" s="13">
-        <f>FromSheet!H6</f>
+        <f>FromSheet!G6</f>
         <v>0.51749999999999996</v>
       </c>
     </row>
@@ -944,7 +996,7 @@
         <v>9.2377560221821892E-2</v>
       </c>
       <c r="J7" s="13">
-        <f>FromSheet!H7</f>
+        <f>FromSheet!G7</f>
         <v>0.1125</v>
       </c>
     </row>
@@ -1026,7 +1078,7 @@
         <v>24</v>
       </c>
       <c r="J3" s="13" t="str">
-        <f>FromSheet!H3</f>
+        <f>FromSheet!G3</f>
         <v>Upper Colorado River Compact Percentages</v>
       </c>
     </row>
@@ -1056,7 +1108,7 @@
         <v>0.21769783761601602</v>
       </c>
       <c r="J4" s="13">
-        <f>FromSheet!H4</f>
+        <f>FromSheet!G4</f>
         <v>0.23</v>
       </c>
     </row>
@@ -1086,7 +1138,7 @@
         <v>0.13673838145754791</v>
       </c>
       <c r="J5" s="13">
-        <f>FromSheet!H5</f>
+        <f>FromSheet!G5</f>
         <v>0.14000000000000001</v>
       </c>
     </row>
@@ -1116,7 +1168,7 @@
         <v>0.55365675894205502</v>
       </c>
       <c r="J6" s="13">
-        <f>FromSheet!H6</f>
+        <f>FromSheet!G6</f>
         <v>0.51749999999999996</v>
       </c>
     </row>
@@ -1141,7 +1193,7 @@
         <v>9.1907021984381124E-2</v>
       </c>
       <c r="J7" s="13">
-        <f>FromSheet!H7</f>
+        <f>FromSheet!G7</f>
         <v>0.1125</v>
       </c>
     </row>
